--- a/NCA/Import/rates_scrambled.xlsx
+++ b/NCA/Import/rates_scrambled.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostiantyn.Bondarenk\Desktop\Cosya007\NCA\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9A4001-B54F-C649-8C5C-915CB88D7DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" xr2:uid="{A2C845B5-085E-B241-859B-A61E5A52806F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Role</t>
   </si>
@@ -466,16 +465,22 @@
   </si>
   <si>
     <t>QA Manual Junior</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,6 +507,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -512,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,14 +557,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -561,6 +568,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,821 +889,1259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3CF6D9-6569-6F42-BE64-4EC4BDFBD9F8}">
-  <dimension ref="A1:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="47.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="47.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E4" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="D21" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="D22" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="D23" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E23" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="D24" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E24" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E25" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E28" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="D29" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E29" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="D30" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="D31" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="D32" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="D33" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E33" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E34" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="D36" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E36" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E37" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="D38" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E38" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="D39" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E39" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="D40" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E40" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="D41" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E41" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="D42" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E42" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="D43" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E43" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="D44" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E44" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="D45" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E45" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="D46" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="D47" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="D48" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E48" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="D49" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E49" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="D50" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E50" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="D51" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E51" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="D52" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E52" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="D53" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E53" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="D54" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E54" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="D55" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E55" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="D56" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E56" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="D57" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E57" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="D58" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E58" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="D59" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E59" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="D60" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E60" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="D61" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E61" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="D62" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E62" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="D63" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E63" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="D64" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E64" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="D65" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E65" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="D66" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E66" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="D67" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E67" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="D68" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E68" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="D69" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E69" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="D70" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E70" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="D71" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E71" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="D72" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E72" s="7">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="2">
         <v>21</v>
+      </c>
+      <c r="D73" s="7">
+        <v>43831</v>
+      </c>
+      <c r="E73" s="7">
+        <v>44196</v>
       </c>
     </row>
   </sheetData>
@@ -1702,5 +2155,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>